--- a/ansible.xlsx
+++ b/ansible.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="slurm.conf" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>install mariadb on master node</t>
   </si>
@@ -68,6 +67,132 @@
   </si>
   <si>
     <t>ALL NODES</t>
+  </si>
+  <si>
+    <t>slothparadise</t>
+  </si>
+  <si>
+    <t>ControlMachine: buhpc3</t>
+  </si>
+  <si>
+    <t>ControlAddr: 128.197.116.18</t>
+  </si>
+  <si>
+    <t>NodeName: buhpc[1-6]</t>
+  </si>
+  <si>
+    <t>CPUs: 4</t>
+  </si>
+  <si>
+    <t>StateSaveLocation: /var/spool/slurmctld</t>
+  </si>
+  <si>
+    <t>SlurmctldLogFile: /var/log/slurmctld.log</t>
+  </si>
+  <si>
+    <t>SlurmdLogFile: /var/log/slurmd.log</t>
+  </si>
+  <si>
+    <t>ClusterName: buhpc</t>
+  </si>
+  <si>
+    <t>additionally, from figure</t>
+  </si>
+  <si>
+    <t>MpiDefault</t>
+  </si>
+  <si>
+    <t>ProctrackType</t>
+  </si>
+  <si>
+    <t>ReturnToService</t>
+  </si>
+  <si>
+    <t>SlurmctldPidFile</t>
+  </si>
+  <si>
+    <t>SlurmdPidFile</t>
+  </si>
+  <si>
+    <t>SlurmdSpoolDir</t>
+  </si>
+  <si>
+    <t>SlurmUser</t>
+  </si>
+  <si>
+    <t>StateSaveLocation</t>
+  </si>
+  <si>
+    <t>SwitchType</t>
+  </si>
+  <si>
+    <t>TaskPlugin</t>
+  </si>
+  <si>
+    <t>FastSchedule</t>
+  </si>
+  <si>
+    <t>SchedulerType</t>
+  </si>
+  <si>
+    <t>SelectType</t>
+  </si>
+  <si>
+    <t>AccountingStorageType</t>
+  </si>
+  <si>
+    <t>ClusterName</t>
+  </si>
+  <si>
+    <t>JobAcctGatherType</t>
+  </si>
+  <si>
+    <t>SlurmctldLogFile</t>
+  </si>
+  <si>
+    <t>SlurmdLogFile</t>
+  </si>
+  <si>
+    <t>NodeName</t>
+  </si>
+  <si>
+    <t>PartitionName</t>
+  </si>
+  <si>
+    <t>Thai web site</t>
+  </si>
+  <si>
+    <t>AuthType</t>
+  </si>
+  <si>
+    <t>SlurmctldTimeout</t>
+  </si>
+  <si>
+    <t>SlurmdTimeout</t>
+  </si>
+  <si>
+    <t>InactiveLimit</t>
+  </si>
+  <si>
+    <t>MinJobAge</t>
+  </si>
+  <si>
+    <t>KillWait</t>
+  </si>
+  <si>
+    <t>Waittime</t>
+  </si>
+  <si>
+    <t>SlurmctldDebg</t>
+  </si>
+  <si>
+    <t>SlurmdDebug</t>
+  </si>
+  <si>
+    <t>JobCompType</t>
+  </si>
+  <si>
+    <t>AccountingStorageHost</t>
   </si>
 </sst>
 </file>
@@ -473,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
@@ -601,12 +726,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
